--- a/ValueSet-SzTinkhundlaVS.xlsx
+++ b/ValueSet-SzTinkhundlaVS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://192.168.10.200:3447/fhir/ValueSet/SzTinkhundlaVS</t>
+    <t>http://172.209.216.154:3447/fhir/ValueSet/SzTinkhundlaVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T11:11:31+00:00</t>
+    <t>2025-07-14T08:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Ministry of Health Eswatini (https://192.168.10.200:3447, eswatinihie@moh.gov.sz)</t>
+    <t>Ministry of Health Eswatini (https://172.209.216.154:3447, eswatinihie@moh.gov.sz)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -105,7 +105,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://192.168.10.200:3447/fhir/CodeSystem/SzTinkhundlaCS</t>
+    <t>http://172.209.216.154:3447/fhir/CodeSystem/SzTinkhundlaCS</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-SzTinkhundlaVS.xlsx
+++ b/ValueSet-SzTinkhundlaVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-14T08:08:58+00:00</t>
+    <t>2025-07-16T14:06:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SzTinkhundlaVS.xlsx
+++ b/ValueSet-SzTinkhundlaVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T14:06:30+00:00</t>
+    <t>2025-08-01T12:25:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SzTinkhundlaVS.xlsx
+++ b/ValueSet-SzTinkhundlaVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T12:25:19+00:00</t>
+    <t>2025-09-08T12:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SzTinkhundlaVS.xlsx
+++ b/ValueSet-SzTinkhundlaVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T12:30:01+00:00</t>
+    <t>2025-09-09T15:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SzTinkhundlaVS.xlsx
+++ b/ValueSet-SzTinkhundlaVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T15:13:38+00:00</t>
+    <t>2025-09-10T08:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SzTinkhundlaVS.xlsx
+++ b/ValueSet-SzTinkhundlaVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T08:40:27+00:00</t>
+    <t>2025-09-10T10:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SzTinkhundlaVS.xlsx
+++ b/ValueSet-SzTinkhundlaVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T10:05:20+00:00</t>
+    <t>2025-09-19T08:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
